--- a/data/0827/定性分析结果-0827.xlsx
+++ b/data/0827/定性分析结果-0827.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
   <si>
     <t>指标</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>非mace</t>
+  </si>
+  <si>
+    <t>统计值</t>
   </si>
   <si>
     <t>p-value</t>
@@ -731,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,647 +759,731 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>1.0589</v>
+      </c>
+      <c r="E3">
+        <v>0.3035</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>0.0738</v>
+      </c>
+      <c r="E4">
+        <v>0.7859</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>0.2762</v>
+      </c>
+      <c r="E5">
+        <v>0.5992</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>0.2808</v>
+      </c>
+      <c r="E6">
+        <v>0.5961</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>7.5018</v>
+      </c>
+      <c r="E7">
+        <v>0.0062</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>1.3031</v>
+      </c>
+      <c r="E8">
+        <v>0.2536</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>5.0813</v>
+      </c>
+      <c r="E9">
+        <v>0.0242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>0.2808</v>
+      </c>
+      <c r="E10">
+        <v>0.5961</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>0.2663</v>
+      </c>
+      <c r="E11">
+        <v>0.6059</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>3.7321</v>
+      </c>
+      <c r="E12">
+        <v>0.0534</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>0.0159</v>
+      </c>
+      <c r="E13">
+        <v>0.8998</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>9.084099999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.0026</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>0.5244</v>
+      </c>
+      <c r="E16">
+        <v>0.469</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>1.9706</v>
+      </c>
+      <c r="E21">
+        <v>0.1604</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22">
+        <v>0.1097</v>
+      </c>
+      <c r="E22">
+        <v>0.7405</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>0.8058</v>
+      </c>
+      <c r="E28">
+        <v>0.3694</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>7.949</v>
+      </c>
+      <c r="E29">
+        <v>0.0048</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>6.9633</v>
+      </c>
+      <c r="E30">
+        <v>0.0083</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>52.4801</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>0.0407</v>
+      </c>
+      <c r="E33">
+        <v>0.9799</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D34">
+        <v>1.8187</v>
+      </c>
+      <c r="E34">
+        <v>0.4028</v>
+      </c>
+      <c r="F34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3">
-        <v>0.3035</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4">
-        <v>0.7859</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>0.5992</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>0.5961</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>0.0062</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>0.2536</v>
-      </c>
-      <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>0.0242</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10">
-        <v>0.5961</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>0.6059</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12">
-        <v>0.0534</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13">
-        <v>0.8998</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <v>0.0026</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16">
-        <v>0.469</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21">
-        <v>0.1604</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22">
-        <v>0.7405</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28">
-        <v>0.3694</v>
-      </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29">
-        <v>0.0048</v>
-      </c>
-      <c r="E29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30">
-        <v>0.0083</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33">
-        <v>0.9799</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>0.4028</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>119</v>
+      <c r="G34" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
